--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail11 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P38_trail11 Features.xlsx
@@ -2261,7 +2261,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2272,29 +2272,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2315,115 +2313,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2440,72 +2428,66 @@
         <v>3.292857358425959e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.469783365670005</v>
+        <v>2.411825087219074e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>14.56051045735536</v>
+        <v>4.543828109528727e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.411825087219074e-06</v>
+        <v>-0.1162333064278591</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.543828109528727e-06</v>
+        <v>0.3817523639118998</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1162333064278591</v>
+        <v>0.1587828250409128</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3817523639118998</v>
+        <v>1.597625616920796</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1587828250409128</v>
+        <v>1.714616401306999</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.512293776692804</v>
+        <v>3.996212845456875</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.714616401306999</v>
+        <v>1.363534086655883e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.996212845456875</v>
+        <v>31603019.55746608</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>1.363534086655883e-14</v>
+        <v>3.410516042278955e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>31603019.55746608</v>
+        <v>13.61830821437829</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.410516042278955e-06</v>
+        <v>0.0001151196963744865</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>13.61830821437829</v>
+        <v>10.21530948570054</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001151196963744865</v>
+        <v>1.191980854860133</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.21530948570054</v>
+        <v>0.0120130336288447</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.191980854860133</v>
+        <v>3.320246019585936</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0120130336288447</v>
+        <v>0.945883954262761</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.320246019585936</v>
+        <v>1.840001596307234</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.945883954262761</v>
+        <v>13</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.840001596307234</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2247932552926609</v>
       </c>
     </row>
@@ -2520,72 +2502,66 @@
         <v>2.371555802350872e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.736304790441829</v>
+        <v>1.668890289536007e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>10.17725985867819</v>
+        <v>4.512399336869232e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.668890289536007e-06</v>
+        <v>-0.1070431507057921</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.512399336869232e-06</v>
+        <v>0.3603379974735516</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1070431507057921</v>
+        <v>0.1408752825266433</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3603379974735516</v>
+        <v>1.593903277713072</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1408752825266433</v>
+        <v>1.667011131710086</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.505687507463668</v>
+        <v>4.400469531752738</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.667011131710086</v>
+        <v>1.556270527113396e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.400469531752738</v>
+        <v>27058339.81146492</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.556270527113396e-14</v>
+        <v>3.966238800449783e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>27058339.81146492</v>
+        <v>11.3942930765827</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.966238800449783e-06</v>
+        <v>0.0001061076599358976</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>11.3942930765827</v>
+        <v>10.08661277036954</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001061076599358976</v>
+        <v>1.204041155037595</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.08661277036954</v>
+        <v>0.01079536755675064</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.204041155037595</v>
+        <v>3.298665932864166</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01079536755675064</v>
+        <v>0.9443639095874565</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.298665932864166</v>
+        <v>1.86633129734338</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9443639095874565</v>
+        <v>8</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.86633129734338</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2399485873941045</v>
       </c>
     </row>
@@ -2600,72 +2576,66 @@
         <v>1.816738013211243e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.849971197646638</v>
+        <v>1.17751716651424e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>5.410492172905002</v>
+        <v>4.491869487283491e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.17751716651424e-06</v>
+        <v>-0.08962894724307088</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.491869487283491e-06</v>
+        <v>0.3313874528511953</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.08962894724307088</v>
+        <v>0.1175513779361528</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3313874528511953</v>
+        <v>1.545647228966254</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1175513779361528</v>
+        <v>1.635983894982382</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.460998335582211</v>
+        <v>4.276614014994727</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.635983894982382</v>
+        <v>1.761385793827902e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.276614014994727</v>
+        <v>24662212.51587115</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>1.761385793827902e-14</v>
+        <v>4.224549576905672e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>24662212.51587115</v>
+        <v>10.7131839214478</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.224549576905672e-06</v>
+        <v>9.194049036383655e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>10.7131839214478</v>
+        <v>8.959880597658382</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>9.194049036383655e-05</v>
+        <v>1.345567789191997</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.959880597658382</v>
+        <v>0.007380932948359854</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.345567789191997</v>
+        <v>3.566702009642981</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.007380932948359854</v>
+        <v>0.9380166459880949</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>3.566702009642981</v>
+        <v>1.837304106228475</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9380166459880949</v>
+        <v>11</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.837304106228475</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2568266518889397</v>
       </c>
     </row>
@@ -2680,72 +2650,66 @@
         <v>1.493789484379275e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.031273014068019</v>
+        <v>8.671543292119706e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.667701861034086</v>
+        <v>4.478873118334479e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.671543292119706e-07</v>
+        <v>-0.06785776709397906</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.478873118334479e-06</v>
+        <v>0.3144502435412845</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.06785776709397906</v>
+        <v>0.103293026773443</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3144502435412845</v>
+        <v>1.532909657425907</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.103293026773443</v>
+        <v>1.643436856970654</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.444377564659296</v>
+        <v>4.132369461846828</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.643436856970654</v>
+        <v>1.886497839201181e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.132369461846828</v>
+        <v>23138103.55358927</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.886497839201181e-14</v>
+        <v>4.48360516257699e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>23138103.55358927</v>
+        <v>10.09977811889983</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.48360516257699e-06</v>
+        <v>0.0001023626981947323</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>10.09977811889983</v>
+        <v>8.253017308899075</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001023626981947323</v>
+        <v>1.825418006491746</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.253017308899075</v>
+        <v>0.006972158265827873</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.825418006491746</v>
+        <v>3.692931547032915</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.006972158265827873</v>
+        <v>0.9371292723758541</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.692931547032915</v>
+        <v>1.872443701185009</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9371292723758541</v>
+        <v>11</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.872443701185009</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2473344816528973</v>
       </c>
     </row>
@@ -2760,72 +2724,66 @@
         <v>1.316487748975705e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4581578212657089</v>
+        <v>6.498610682524752e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.4674363312559011</v>
+        <v>4.471048643784069e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>6.498610682524752e-07</v>
+        <v>-0.04335462189603614</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.471048643784069e-06</v>
+        <v>0.2963814412221871</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04335462189603614</v>
+        <v>0.08957133376350652</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2963814412221871</v>
+        <v>1.508345219747791</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.08957133376350652</v>
+        <v>1.58237220228094</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.415981774075973</v>
+        <v>4.043627669347938</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.58237220228094</v>
+        <v>1.970208914385299e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.043627669347938</v>
+        <v>21567979.65750534</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.970208914385299e-14</v>
+        <v>4.70655132040538e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>21567979.65750534</v>
+        <v>9.164973429408974</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.70655132040538e-06</v>
+        <v>0.0001040669351994203</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>9.164973429408974</v>
+        <v>8.205745951983888</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001040669351994203</v>
+        <v>1.823115370070482</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.205745951983888</v>
+        <v>0.007007270761928591</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.823115370070482</v>
+        <v>3.656728026969553</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.007007270761928591</v>
+        <v>0.9377009470345665</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.656728026969553</v>
+        <v>1.870562838338202</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9377009470345665</v>
+        <v>12</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.870562838338202</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2370974570297482</v>
       </c>
     </row>
@@ -2840,72 +2798,66 @@
         <v>1.2420463333963e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.235605531732846</v>
+        <v>4.759644542939664e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.042109115893894</v>
+        <v>4.467255892885858e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>4.759644542939664e-07</v>
+        <v>-0.01649101397135358</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.467255892885858e-06</v>
+        <v>0.2641438383987028</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.01649101397135358</v>
+        <v>0.06994459690040201</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.2641438383987028</v>
+        <v>1.512870037306307</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.06994459690040201</v>
+        <v>1.603211834861412</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.421616517448991</v>
+        <v>4.088135796608443</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.603211834861412</v>
+        <v>1.927542542780015e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.088135796608443</v>
+        <v>22756705.58580257</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.927542542780015e-14</v>
+        <v>4.541709049415571e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>22756705.58580257</v>
+        <v>9.982119252061491</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>4.541709049415571e-06</v>
+        <v>0.000101332984510146</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>9.982119252061491</v>
+        <v>8.352628795252707</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.000101332984510146</v>
+        <v>1.279446955484474</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.352628795252707</v>
+        <v>0.007069638320042784</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.279446955484474</v>
+        <v>3.39990861560341</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.007069638320042784</v>
+        <v>0.9383378942466449</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.39990861560341</v>
+        <v>1.826732069867867</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9383378942466449</v>
+        <v>21</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.826732069867867</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2299937959694122</v>
       </c>
     </row>
@@ -2920,72 +2872,66 @@
         <v>1.231365357291634e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.212114814042796</v>
+        <v>4.282788861815493e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.074228488308167</v>
+        <v>4.46663059083893e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>4.282788861815493e-07</v>
+        <v>0.004759608472184053</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>4.46663059083893e-06</v>
+        <v>0.2404807269199449</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.004759608472184053</v>
+        <v>0.05781833214859091</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.2404807269199449</v>
+        <v>1.497380779300487</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.05781833214859091</v>
+        <v>1.582189862746172</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.407389225530225</v>
+        <v>4.093515030364372</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.582189862746172</v>
+        <v>1.922479955175725e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.093515030364372</v>
+        <v>23180399.34393262</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.922479955175725e-14</v>
+        <v>4.427201112548226e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>23180399.34393262</v>
+        <v>10.33007910969465</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>4.427201112548226e-06</v>
+        <v>0.0001128804844987655</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>10.33007910969465</v>
+        <v>8.386467292587742</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001128804844987655</v>
+        <v>1.15937895464943</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.386467292587742</v>
+        <v>0.007939204338542888</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.15937895464943</v>
+        <v>3.169248982726825</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.007939204338542888</v>
+        <v>0.9387118040836282</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.169248982726825</v>
+        <v>1.857880029034713</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9387118040836282</v>
+        <v>31</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.857880029034713</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2203631719643318</v>
       </c>
     </row>
@@ -3000,72 +2946,66 @@
         <v>1.250235003350045e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2326348761639183</v>
+        <v>4.282788861815493e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.078654251725883</v>
+        <v>4.46801186900979e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>4.282788861815493e-07</v>
+        <v>0.01616346503236481</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>4.46801186900979e-06</v>
+        <v>0.2300355495077858</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.01616346503236481</v>
+        <v>0.05316862382841768</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.2300355495077858</v>
+        <v>1.548142785334238</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.05316862382841768</v>
+        <v>1.492812257117922</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.457407970039098</v>
+        <v>4.361471961673328</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.492812257117922</v>
+        <v>1.944401834922226e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.361471961673328</v>
+        <v>22837577.45496427</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.944401834922226e-14</v>
+        <v>4.690781542833404e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>22837577.45496427</v>
+        <v>10.14112390148705</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.690781542833404e-06</v>
+        <v>0.0001079039455964434</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>10.14112390148705</v>
+        <v>8.031415813329742</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001079039455964434</v>
+        <v>1.132375503120622</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.031415813329742</v>
+        <v>0.006960197257728904</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.132375503120622</v>
+        <v>3.221137295440482</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.006960197257728904</v>
+        <v>0.9435953661023264</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.221137295440482</v>
+        <v>1.80997381169187</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9435953661023264</v>
+        <v>30</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.80997381169187</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2295890866859113</v>
       </c>
     </row>
@@ -3080,72 +3020,66 @@
         <v>1.279227444243284e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2495110856107125</v>
+        <v>4.282788861815493e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.105776364046407</v>
+        <v>4.470395470414587e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>4.282788861815493e-07</v>
+        <v>0.02056969612264922</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.470395470414587e-06</v>
+        <v>0.2215475827952989</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.02056969612264922</v>
+        <v>0.04949959803932688</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.2215475827952989</v>
+        <v>1.56070971281113</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.04949959803932688</v>
+        <v>1.5858955350585</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.469170015502209</v>
+        <v>4.369722048099234</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.5858955350585</v>
+        <v>2.679294896264268e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.369722048099234</v>
+        <v>16753966.25594658</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.679294896264268e-14</v>
+        <v>6.443867726575719e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>16753966.25594658</v>
+        <v>7.520657132536817</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.443867726575719e-06</v>
+        <v>0.000100316680021166</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>7.520657132536817</v>
+        <v>8.580676007328623</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.000100316680021166</v>
+        <v>1.730949489337585</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.580676007328623</v>
+        <v>0.007386116591108131</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.730949489337585</v>
+        <v>3.478858192251947</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.007386116591108131</v>
+        <v>0.9433072367588305</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.478858192251947</v>
+        <v>1.83038217193173</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9433072367588305</v>
+        <v>29</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.83038217193173</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2496573800224671</v>
       </c>
     </row>
@@ -3160,72 +3094,66 @@
         <v>1.305884790312852e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.2385689004181807</v>
+        <v>4.282788861815493e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.16878956657505</v>
+        <v>4.473181583919959e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>4.282788861815493e-07</v>
+        <v>0.02260001511197856</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.473181583919959e-06</v>
+        <v>0.2136467283309471</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.02260001511197856</v>
+        <v>0.04614224272004794</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.2136467283309471</v>
+        <v>1.542726476755775</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.04614224272004794</v>
+        <v>1.527709090450279</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.449081184252614</v>
+        <v>4.373099699899567</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.527709090450279</v>
+        <v>2.675157679652787e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.373099699899567</v>
+        <v>16888692.62313678</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>2.675157679652787e-14</v>
+        <v>6.341621300149616e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>16888692.62313678</v>
+        <v>7.630297101800869</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.341621300149616e-06</v>
+        <v>0.000114574857999031</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>7.630297101800869</v>
+        <v>11.32930360770423</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.000114574857999031</v>
+        <v>1.608360432650676</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>11.32930360770423</v>
+        <v>0.01470604052471955</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.608360432650676</v>
+        <v>3.449492947639965</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01470604052471955</v>
+        <v>0.9423559378215071</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.449492947639965</v>
+        <v>1.833823705381071</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9423559378215071</v>
+        <v>29</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.833823705381071</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.272655037952399</v>
       </c>
     </row>
@@ -3240,72 +3168,66 @@
         <v>1.325805188507162e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1980576495875661</v>
+        <v>4.282788861815493e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.241930374793607</v>
+        <v>4.47635556716338e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>4.282788861815493e-07</v>
+        <v>0.02554302511709501</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.47635556716338e-06</v>
+        <v>0.2056800581449888</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.02554302511709501</v>
+        <v>0.04294873412399564</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.2056800581449888</v>
+        <v>1.557624621815249</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.04294873412399564</v>
+        <v>1.592193328023129</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.465657851193396</v>
+        <v>4.408944395092629</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.592193328023129</v>
+        <v>2.631836462781073e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.408944395092629</v>
+        <v>17068721.10473687</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>2.631836462781073e-14</v>
+        <v>6.287756588431462e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>17068721.10473687</v>
+        <v>7.667624989420218</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.287756588431462e-06</v>
+        <v>0.0001052540100626234</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>7.667624989420218</v>
+        <v>8.013111998438706</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001052540100626234</v>
+        <v>1.987874723881189</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.013111998438706</v>
+        <v>0.006758356186401013</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.987874723881189</v>
+        <v>3.53145368905855</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.006758356186401013</v>
+        <v>0.9432548966683931</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.53145368905855</v>
+        <v>1.83309169166254</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9432548966683931</v>
+        <v>28</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.83309169166254</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2462984115963295</v>
       </c>
     </row>
@@ -3320,72 +3242,66 @@
         <v>1.338895127803708e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.1412978406869222</v>
+        <v>4.282788861815493e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.29740487779085</v>
+        <v>4.479902896822436e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.282788861815493e-07</v>
+        <v>0.02719838572267054</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.479902896822436e-06</v>
+        <v>0.2016696964334841</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.02719838572267054</v>
+        <v>0.04140889007750877</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2016696964334841</v>
+        <v>1.558330458624432</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.04140889007750877</v>
+        <v>1.531914885333394</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.465783995556278</v>
+        <v>4.407244446282531</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.531914885333394</v>
+        <v>2.633867142115582e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.407244446282531</v>
+        <v>17116987.25892194</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.633867142115582e-14</v>
+        <v>6.27516121304746e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>17116987.25892194</v>
+        <v>7.717000337353985</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>6.27516121304746e-06</v>
+        <v>0.0001086817333466653</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>7.717000337353985</v>
+        <v>6.812311787176958</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001086817333466653</v>
+        <v>1.401640419862442</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>6.812311787176958</v>
+        <v>0.005043657526583614</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.401640419862442</v>
+        <v>3.388894643699183</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.005043657526583614</v>
+        <v>0.9434885720618497</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.388894643699183</v>
+        <v>1.820181890499988</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9434885720618497</v>
+        <v>26</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.820181890499988</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.2249916813154456</v>
       </c>
     </row>
@@ -3400,72 +3316,66 @@
         <v>1.346912558973474e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.07968970250596569</v>
+        <v>4.282788861815493e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.332524025402924</v>
+        <v>4.483571226117833e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>4.282788861815493e-07</v>
+        <v>0.02776798735328287</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.483571226117833e-06</v>
+        <v>0.2000083586534822</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.02776798735328287</v>
+        <v>0.04077214176550892</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2000083586534822</v>
+        <v>1.563500797064995</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.04077214176550892</v>
+        <v>1.496894482102185</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.47090350883831</v>
+        <v>4.464307805794522</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.496894482102185</v>
+        <v>2.566964610155162e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.464307805794522</v>
+        <v>17632227.71903144</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>2.566964610155162e-14</v>
+        <v>6.103924971678767e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>17632227.71903144</v>
+        <v>7.980576287380591</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>6.103924971678767e-06</v>
+        <v>0.0001123139666932176</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>7.980576287380591</v>
+        <v>7.469378656626723</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001123139666932176</v>
+        <v>1.269020142413709</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>7.469378656626723</v>
+        <v>0.006266177871460712</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.269020142413709</v>
+        <v>3.255039698271069</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.006266177871460712</v>
+        <v>0.9434290215965165</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>3.255039698271069</v>
+        <v>1.814688645655735</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9434290215965165</v>
+        <v>26</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.814688645655735</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.2201988220690653</v>
       </c>
     </row>
@@ -3480,72 +3390,66 @@
         <v>1.34976992801028e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.01475191885487185</v>
+        <v>4.282788861815493e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.345734612240359</v>
+        <v>4.487540662735235e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>4.282788861815493e-07</v>
+        <v>0.03143888483595451</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.487540662735235e-06</v>
+        <v>0.1962260185864141</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.03143888483595451</v>
+        <v>0.03948743689436517</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1962260185864141</v>
+        <v>1.55380964926361</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.03948743689436517</v>
+        <v>1.472778699537452</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.460554438209177</v>
+        <v>4.651722381011723</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.472778699537452</v>
+        <v>2.36428903072099e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>4.651722381011723</v>
+        <v>18705256.32022037</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>2.36428903072099e-14</v>
+        <v>5.680459456789053e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>18705256.32022037</v>
+        <v>8.272330834884711</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>5.680459456789053e-06</v>
+        <v>0.0001112347042061847</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>8.272330834884711</v>
+        <v>7.820799673847143</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001112347042061847</v>
+        <v>1.177016829960779</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>7.820799673847143</v>
+        <v>0.006803660397837856</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.177016829960779</v>
+        <v>3.208363864239307</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.006803660397837856</v>
+        <v>0.9433316666382846</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.208363864239307</v>
+        <v>1.846515075841212</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9433316666382846</v>
+        <v>26</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.846515075841212</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.2163820207268431</v>
       </c>
     </row>
@@ -3560,72 +3464,66 @@
         <v>1.344518641578144e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>-0.05042711637052864</v>
+        <v>4.282788861815493e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.334200949969874</v>
+        <v>4.492081745455776e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>4.282788861815493e-07</v>
+        <v>0.03580745335827897</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.492081745455776e-06</v>
+        <v>0.192812384651986</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.03580745335827897</v>
+        <v>0.03845393023072203</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.192812384651986</v>
+        <v>1.565657647120996</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.03845393023072203</v>
+        <v>1.57167375507112</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.47533792412461</v>
+        <v>4.709462615838735</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.57167375507112</v>
+        <v>2.306669829484186e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.709462615838735</v>
+        <v>18943110.79499203</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.306669829484186e-14</v>
+        <v>5.641274018871666e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>18943110.79499203</v>
+        <v>8.277287384207133</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>5.641274018871666e-06</v>
+        <v>0.000112343457161466</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>8.277287384207133</v>
+        <v>9.009025635557249</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.000112343457161466</v>
+        <v>1.085955279754432</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.009025635557249</v>
+        <v>0.009118080661640826</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.085955279754432</v>
+        <v>3.094321175559973</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.009118080661640826</v>
+        <v>0.945205234346291</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.094321175559973</v>
+        <v>1.845214419684372</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.945205234346291</v>
+        <v>27</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.845214419684372</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2184056188305067</v>
       </c>
     </row>
@@ -3640,72 +3538,66 @@
         <v>1.328973632739406e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>-0.1068971451409017</v>
+        <v>4.282788861815493e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.309466670574782</v>
+        <v>4.497145490002757e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>4.282788861815493e-07</v>
+        <v>0.03982089054081878</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.497145490002757e-06</v>
+        <v>0.1916777636878039</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.03982089054081878</v>
+        <v>0.0383235988178617</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1916777636878039</v>
+        <v>1.578875158717646</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0383235988178617</v>
+        <v>1.488425795684086</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.487534365026802</v>
+        <v>4.767856702092377</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.488425795684086</v>
+        <v>2.250514183523615e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.767856702092377</v>
+        <v>19839539.534339</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>2.250514183523615e-14</v>
+        <v>5.418866570820897e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>19839539.534339</v>
+        <v>8.858188765061623</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>5.418866570820897e-06</v>
+        <v>0.0001225860024381893</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>8.858188765061623</v>
+        <v>8.892467666517726</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001225860024381893</v>
+        <v>1.275539337781427</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.892467666517726</v>
+        <v>0.009693608424193163</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.275539337781427</v>
+        <v>3.237778146475394</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.009693608424193163</v>
+        <v>0.9460961977916773</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.237778146475394</v>
+        <v>1.822193718227322</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9460961977916773</v>
+        <v>30</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.822193718227322</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.205884514643147</v>
       </c>
     </row>
@@ -3720,72 +3612,66 @@
         <v>1.304191328522887e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-0.1484645504042928</v>
+        <v>4.282788861815493e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.293389790644893</v>
+        <v>4.502626051369995e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4.282788861815493e-07</v>
+        <v>0.04315352365140785</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.502626051369995e-06</v>
+        <v>0.1940553309161799</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.04315352365140785</v>
+        <v>0.03951967730237464</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1940553309161799</v>
+        <v>1.569204865509499</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.03951967730237464</v>
+        <v>1.434757453053207</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.479167772398398</v>
+        <v>5.13115050867538</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.434757453053207</v>
+        <v>1.943115586084506e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>5.13115050867538</v>
+        <v>22947457.91386558</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.943115586084506e-14</v>
+        <v>4.676715925425436e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>22947457.91386558</v>
+        <v>10.23217123402507</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.676715925425436e-06</v>
+        <v>0.0001280513901360401</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>10.23217123402507</v>
+        <v>7.592802467464242</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001280513901360401</v>
+        <v>1.583646250111175</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.592802467464242</v>
+        <v>0.007382245786382015</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.583646250111175</v>
+        <v>3.3265343437979</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.007382245786382015</v>
+        <v>0.9460828954243686</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.3265343437979</v>
+        <v>1.820696097640962</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9460828954243686</v>
+        <v>30</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.820696097640962</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2050694068909104</v>
       </c>
     </row>
@@ -3800,72 +3686,66 @@
         <v>1.276119089922818e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-0.1824732174668868</v>
+        <v>4.204356331626195e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.287833913866292</v>
+        <v>4.508285816854618e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>4.204356331626195e-07</v>
+        <v>0.04418199592189484</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.508285816854618e-06</v>
+        <v>0.1982257368288214</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.04418199592189484</v>
+        <v>0.04124439714945913</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1982257368288214</v>
+        <v>1.622974144066644</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.04124439714945913</v>
+        <v>1.610374485911068</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.532556614852861</v>
+        <v>4.416372495615256</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.610374485911068</v>
+        <v>1.542354351668218e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.416372495615256</v>
+        <v>28908554.44989556</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.542354351668218e-14</v>
+        <v>3.807029286749066e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>28908554.44989556</v>
+        <v>12.88952503720868</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>3.807029286749066e-06</v>
+        <v>0.0001174492035498761</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>12.88952503720868</v>
+        <v>7.098438606684479</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001174492035498761</v>
+        <v>1.491943209033763</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.098438606684479</v>
+        <v>0.005918010578785461</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.491943209033763</v>
+        <v>3.323447737175909</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.005918010578785461</v>
+        <v>0.9510460111564846</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.323447737175909</v>
+        <v>1.786121983616381</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9510460111564846</v>
+        <v>41</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.786121983616381</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.217475888282222</v>
       </c>
     </row>
@@ -3880,72 +3760,66 @@
         <v>1.249191727526949e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-0.2190193676893091</v>
+        <v>4.172472558437651e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.276665755813062</v>
+        <v>4.513889909621686e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4.172472558437651e-07</v>
+        <v>0.04454172273535018</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.513889909621686e-06</v>
+        <v>0.2025464225338003</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.04454172273535018</v>
+        <v>0.0430087465584331</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2025464225338003</v>
+        <v>1.58718203296353</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.0430087465584331</v>
+        <v>1.745842194005628</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.494310130926848</v>
+        <v>4.081262031004408</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.745842194005628</v>
+        <v>1.806036813027354e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.081262031004408</v>
+        <v>26001732.80112136</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.806036813027354e-14</v>
+        <v>4.202103080246012e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>26001732.80112136</v>
+        <v>12.21043625165269</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>4.202103080246012e-06</v>
+        <v>0.0001176918220173221</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>12.21043625165269</v>
+        <v>7.712384254608971</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001176918220173221</v>
+        <v>1.32438517977858</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>7.712384254608971</v>
+        <v>0.007000412070308331</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.32438517977858</v>
+        <v>3.180234720242115</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.007000412070308331</v>
+        <v>0.9476607967291635</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.180234720242115</v>
+        <v>1.806411504253914</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9476607967291635</v>
+        <v>46</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.806411504253914</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.2155074575829305</v>
       </c>
     </row>
@@ -3960,72 +3834,66 @@
         <v>1.217618733901848e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>-0.2473208669894739</v>
+        <v>4.172058320904224e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.272391519319468</v>
+        <v>4.519325173139078e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>4.172058320904224e-07</v>
+        <v>0.042992460937427</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.519325173139078e-06</v>
+        <v>0.209878707503383</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.042992460937427</v>
+        <v>0.04589361048964439</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.209878707503383</v>
+        <v>1.575828607548386</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.04589361048964439</v>
+        <v>1.602896676872612</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.48352910824072</v>
+        <v>3.896248724418037</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.602896676872612</v>
+        <v>1.981628364284403e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>3.896248724418037</v>
+        <v>24084807.9483346</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.981628364284403e-14</v>
+        <v>4.509858064728005e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>24084807.9483346</v>
+        <v>11.49498966593042</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>4.509858064728005e-06</v>
+        <v>0.0001180841086436864</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>11.49498966593042</v>
+        <v>8.523331845224991</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001180841086436864</v>
+        <v>1.217832156247126</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.523331845224991</v>
+        <v>0.008578478174032072</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.217832156247126</v>
+        <v>3.083822529649546</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.008578478174032072</v>
+        <v>0.9457194195408897</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.083822529649546</v>
+        <v>1.792499660063991</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9457194195408897</v>
+        <v>45</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.792499660063991</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.2164346033026485</v>
       </c>
     </row>
@@ -4040,72 +3908,66 @@
         <v>1.180782878540853e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>-0.2624158628732338</v>
+        <v>4.070361353994709e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.273966115519339</v>
+        <v>4.524248867237492e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>4.070361353994709e-07</v>
+        <v>0.03879814953385557</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.524248867237492e-06</v>
+        <v>0.2194738023918198</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.03879814953385557</v>
+        <v>0.04967025246624691</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2194738023918198</v>
+        <v>1.563358882504438</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.04967025246624691</v>
+        <v>1.620145730968012</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.46738427055104</v>
+        <v>3.829620647810728</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.620145730968012</v>
+        <v>2.051181279119992e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>3.829620647810728</v>
+        <v>23044023.45495015</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>2.051181279119992e-14</v>
+        <v>4.679538733458842e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>23044023.45495015</v>
+        <v>10.89232675961525</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.679538733458842e-06</v>
+        <v>0.0001155913011571105</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>10.89232675961525</v>
+        <v>9.02232838837554</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001155913011571105</v>
+        <v>1.169058667051402</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.02232838837554</v>
+        <v>0.009409410436941157</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.169058667051402</v>
+        <v>3.18476680713711</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.009409410436941157</v>
+        <v>0.9449917992470511</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.18476680713711</v>
+        <v>1.863918738013532</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9449917992470511</v>
+        <v>37</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.863918738013532</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.223321955657349</v>
       </c>
     </row>
@@ -4120,72 +3982,66 @@
         <v>1.143217163342016e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>-0.2687020810385758</v>
+        <v>3.981457834911167e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.26958990785136</v>
+        <v>4.528551652027227e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>3.981457834911167e-07</v>
+        <v>0.03553167004890078</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.528551652027227e-06</v>
+        <v>0.2285891854333878</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.03553167004890078</v>
+        <v>0.05351355795135937</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.2285891854333878</v>
+        <v>1.572262022078687</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.05351355795135937</v>
+        <v>1.741055525385546</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.478483309540607</v>
+        <v>3.795162177908536</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.741055525385546</v>
+        <v>2.088598095529164e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.795162177908536</v>
+        <v>21950077.12784068</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.088598095529164e-14</v>
+        <v>4.919132776012758e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>21950077.12784068</v>
+        <v>10.06298855743399</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>4.919132776012758e-06</v>
+        <v>0.0001039861184287863</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>10.06298855743399</v>
+        <v>7.844229214861017</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001039861184287863</v>
+        <v>1.306042190318547</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>7.844229214861017</v>
+        <v>0.006398466765533396</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.306042190318547</v>
+        <v>3.446329675289979</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.006398466765533396</v>
+        <v>0.9435047567098402</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.446329675289979</v>
+        <v>1.838935943190761</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9435047567098402</v>
+        <v>27</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.838935943190761</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.2455145544220242</v>
       </c>
     </row>
@@ -4200,72 +4056,66 @@
         <v>1.105394939423446e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>-0.2624867321734009</v>
+        <v>3.85079856932882e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.272819047273325</v>
+        <v>4.53238750530952e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.85079856932882e-07</v>
+        <v>0.03242044906030248</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.53238750530952e-06</v>
+        <v>0.2372068002858852</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.03242044906030248</v>
+        <v>0.05731464183516662</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2372068002858852</v>
+        <v>1.588053848048241</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.05731464183516662</v>
+        <v>1.572506502411734</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.495669024872823</v>
+        <v>3.855208628390407</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.572506502411734</v>
+        <v>2.024043237152728e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.855208628390407</v>
+        <v>22073629.04341824</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.024043237152728e-14</v>
+        <v>4.916376602318151e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>22073629.04341824</v>
+        <v>9.862051477631569</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>4.916376602318151e-06</v>
+        <v>9.74064145802712e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>9.862051477631569</v>
+        <v>6.697523285965548</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>9.74064145802712e-05</v>
+        <v>1.637224169103991</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>6.697523285965548</v>
+        <v>0.00436934182703418</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.637224169103991</v>
+        <v>3.545362348096097</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.00436934182703418</v>
+        <v>0.945032386773075</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.545362348096097</v>
+        <v>1.818258406082992</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.945032386773075</v>
+        <v>27</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.818258406082992</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.2599117963323454</v>
       </c>
     </row>
@@ -4280,72 +4130,66 @@
         <v>1.072917809846881e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.2628103369251832</v>
+        <v>3.527202492303914e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.249843570427444</v>
+        <v>4.535665187819302e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>3.527202492303914e-07</v>
+        <v>0.02794029272338453</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4.535665187819302e-06</v>
+        <v>0.2420183884655984</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.02794029272338453</v>
+        <v>0.05934823459257764</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.2420183884655984</v>
+        <v>1.61299589305461</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.05934823459257764</v>
+        <v>1.536489054167092</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.518599121635021</v>
+        <v>4.532885549238113</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.536489054167092</v>
+        <v>1.324787793865869e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.532885549238113</v>
+        <v>32858126.63357524</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1.324787793865869e-14</v>
+        <v>3.330344437499568e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>32858126.63357524</v>
+        <v>14.30315734046133</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>3.330344437499568e-06</v>
+        <v>9.770360969860123e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>14.30315734046133</v>
+        <v>6.205139421671321</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>9.770360969860123e-05</v>
+        <v>1.518322513985289</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>6.205139421671321</v>
+        <v>0.003761955874131917</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.518322513985289</v>
+        <v>3.491686875522098</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.003761955874131917</v>
+        <v>0.947729753606209</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.491686875522098</v>
+        <v>1.846337851805587</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.947729753606209</v>
+        <v>27</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.846337851805587</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2484005166195102</v>
       </c>
     </row>
@@ -4360,72 +4204,66 @@
         <v>1.047095176111129e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.2809451918547448</v>
+        <v>3.492891635530049e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.190142072156594</v>
+        <v>4.538557825653785e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>3.492891635530049e-07</v>
+        <v>0.02737462953444708</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4.538557825653785e-06</v>
+        <v>0.2472897565160644</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.02737462953444708</v>
+        <v>0.0619015968193176</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.2472897565160644</v>
+        <v>1.597850967230806</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.0619015968193176</v>
+        <v>1.629002116673999</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.505680458403088</v>
+        <v>4.553637050444848</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.629002116673999</v>
+        <v>1.320394136391916e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.553637050444848</v>
+        <v>33667793.95903823</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1.320394136391916e-14</v>
+        <v>3.187296782758495e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>33667793.95903823</v>
+        <v>14.9669362371103</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.187296782758495e-06</v>
+        <v>9.826179084099699e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>14.9669362371103</v>
+        <v>6.900668497436932</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>9.826179084099699e-05</v>
+        <v>1.300397505724536</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>6.900668497436932</v>
+        <v>0.004679150396875456</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.300397505724536</v>
+        <v>3.395018567461581</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.004679150396875456</v>
+        <v>0.9474112543070066</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.395018567461581</v>
+        <v>1.794210640029702</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9474112543070066</v>
+        <v>25</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.794210640029702</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2430133953654779</v>
       </c>
     </row>
@@ -4440,72 +4278,66 @@
         <v>1.020652739600262e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.2970356134799044</v>
+        <v>3.492891635530049e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.127212506946567</v>
+        <v>4.541447536395404e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>3.492891635530049e-07</v>
+        <v>0.02838760887747833</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.541447536395404e-06</v>
+        <v>0.2536105100562046</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.02838760887747833</v>
+        <v>0.06512242213280189</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.2536105100562046</v>
+        <v>1.594475831679112</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.06512242213280189</v>
+        <v>1.593960847276829</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.500844495597393</v>
+        <v>4.254213983862487</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.593960847276829</v>
+        <v>1.512800813901656e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.254213983862487</v>
+        <v>30344009.09834027</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1.512800813901656e-14</v>
+        <v>3.550886993532581e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>30344009.09834027</v>
+        <v>13.92924795415869</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>3.550886993532581e-06</v>
+        <v>0.0001054370879545837</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>13.92924795415869</v>
+        <v>9.031460655898503</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001054370879545837</v>
+        <v>1.323958614210165</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.031460655898503</v>
+        <v>0.008600216642065809</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.323958614210165</v>
+        <v>3.260439185857759</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.008600216642065809</v>
+        <v>0.9483409580280978</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.260439185857759</v>
+        <v>1.835054031362177</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9483409580280978</v>
+        <v>25</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.835054031362177</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.2434229168126597</v>
       </c>
     </row>
@@ -4520,72 +4352,66 @@
         <v>9.902284172820815e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.2911765943112202</v>
+        <v>3.492461395357345e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.090737751371438</v>
+        <v>4.54429560562789e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>3.492461395357345e-07</v>
+        <v>0.02800156509147222</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>4.54429560562789e-06</v>
+        <v>0.2619374205845985</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.02800156509147222</v>
+        <v>0.06939484228426736</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.2619374205845985</v>
+        <v>1.581934992723568</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.06939484228426736</v>
+        <v>1.633232293840165</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.483827669162869</v>
+        <v>4.239863234734351</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.633232293840165</v>
+        <v>1.523058958843886e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>4.239863234734351</v>
+        <v>30436310.24737553</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1.523058958843886e-14</v>
+        <v>3.536832411728307e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>30436310.24737553</v>
+        <v>14.10914576429818</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>3.536832411728307e-06</v>
+        <v>0.0001050623841595778</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>14.10914576429818</v>
+        <v>8.543283054014122</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001050623841595778</v>
+        <v>1.411545628900604</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.543283054014122</v>
+        <v>0.007668260236215039</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.411545628900604</v>
+        <v>3.399083328096946</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.007668260236215039</v>
+        <v>0.9483180537299922</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.399083328096946</v>
+        <v>1.86047745854902</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9483180537299922</v>
+        <v>26</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.86047745854902</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.2408459586878467</v>
       </c>
     </row>
@@ -4600,72 +4426,66 @@
         <v>9.588688411124443e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-0.2695870558367707</v>
+        <v>3.403270699732499e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.076293860776941</v>
+        <v>4.546985342811693e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>3.403270699732499e-07</v>
+        <v>0.02715732508802631</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>4.546985342811693e-06</v>
+        <v>0.2704185748665226</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.02715732508802631</v>
+        <v>0.07386071689592261</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.2704185748665226</v>
+        <v>1.591142552243372</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.07386071689592261</v>
+        <v>1.656738501109752</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.491632961069709</v>
+        <v>4.169292332420432</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.656738501109752</v>
+        <v>1.682277045788069e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.169292332420432</v>
+        <v>28234025.88774052</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1.682277045788069e-14</v>
+        <v>3.845636691269648e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>28234025.88774052</v>
+        <v>13.41044336270157</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>3.845636691269648e-06</v>
+        <v>9.501817200482072e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>13.41044336270157</v>
+        <v>6.787560512740433</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>9.501817200482072e-05</v>
+        <v>1.501123390310997</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>6.787560512740433</v>
+        <v>0.004377580084869868</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.501123390310997</v>
+        <v>3.485328339948039</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.004377580084869868</v>
+        <v>0.9503144600148316</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.485328339948039</v>
+        <v>1.853192195373702</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9503144600148316</v>
+        <v>26</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.853192195373702</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2546788262227822</v>
       </c>
     </row>
@@ -4680,72 +4500,66 @@
         <v>9.319359778610899e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-0.2621982546603461</v>
+        <v>3.312822975691572e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.033283781331198</v>
+        <v>4.54947809774321e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>3.312822975691572e-07</v>
+        <v>0.02549831234692194</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.54947809774321e-06</v>
+        <v>0.2759149077851251</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.02549831234692194</v>
+        <v>0.07675600968798439</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.2759149077851251</v>
+        <v>1.582179697643963</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.07675600968798439</v>
+        <v>1.68106527314648</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.485470685187666</v>
+        <v>4.165996000161605</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.68106527314648</v>
+        <v>1.997445597252913e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>4.165996000161605</v>
+        <v>23808913.19087124</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1.997445597252913e-14</v>
+        <v>4.531925502544735e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>23808913.19087124</v>
+        <v>11.32280694814839</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>4.531925502544735e-06</v>
+        <v>9.684053420227478e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>11.32280694814839</v>
+        <v>6.409334163326141</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>9.684053420227478e-05</v>
+        <v>1.481500007231253</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>6.409334163326141</v>
+        <v>0.003978166962956432</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.481500007231253</v>
+        <v>3.41771297613239</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.003978166962956432</v>
+        <v>0.948077121909181</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.41771297613239</v>
+        <v>1.837943836078672</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.948077121909181</v>
+        <v>26</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.837943836078672</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.25580725091283</v>
       </c>
     </row>
@@ -4760,72 +4574,66 @@
         <v>9.149994688755213e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>-0.2951397793102133</v>
+        <v>3.312822975691572e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.9430203532053154</v>
+        <v>4.551724996973326e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>3.312822975691572e-07</v>
+        <v>0.02336810115643436</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>4.551724996973326e-06</v>
+        <v>0.2773340768076091</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.02336810115643436</v>
+        <v>0.07744275250673471</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.2773340768076091</v>
+        <v>1.542165797672628</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.07744275250673471</v>
+        <v>1.730377962485799</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.445384814530706</v>
+        <v>4.117197762267715</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.730377962485799</v>
+        <v>2.045074816667195e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.117197762267715</v>
+        <v>23614861.57251733</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.045074816667195e-14</v>
+        <v>4.474852818405672e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>23614861.57251733</v>
+        <v>11.40459872486174</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>4.474852818405672e-06</v>
+        <v>0.0001021705232256994</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>11.40459872486174</v>
+        <v>6.823893556492616</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001021705232256994</v>
+        <v>1.404042441112271</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>6.823893556492616</v>
+        <v>0.004757623876809265</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.404042441112271</v>
+        <v>3.291357829530836</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.004757623876809265</v>
+        <v>0.9430333921589713</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.291357829530836</v>
+        <v>1.860270529633586</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9430333921589713</v>
+        <v>26</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.860270529633586</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2438622933065509</v>
       </c>
     </row>
@@ -4840,72 +4648,66 @@
         <v>9.064048142600043e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-0.3496033719054886</v>
+        <v>3.312822975691572e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.8595954852007353</v>
+        <v>4.553793025612493e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>3.312822975691572e-07</v>
+        <v>0.02254428976637907</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>4.553793025612493e-06</v>
+        <v>0.2787868586391844</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.02254428976637907</v>
+        <v>0.07822273822684772</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.2787868586391844</v>
+        <v>1.527481049643722</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.07822273822684772</v>
+        <v>1.594826963531687</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.429950175855322</v>
+        <v>4.087001978846034</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.594826963531687</v>
+        <v>2.075405488614891e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.087001978846034</v>
+        <v>23103116.13857447</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>2.075405488614891e-14</v>
+        <v>4.543007057015995e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>23103116.13857447</v>
+        <v>11.07755929933497</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>4.543007057015995e-06</v>
+        <v>0.0001134646448972602</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>11.07755929933497</v>
+        <v>7.944739843522174</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001134646448972602</v>
+        <v>1.442460296897264</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.944739843522174</v>
+        <v>0.007161762574189197</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.442460296897264</v>
+        <v>3.092089079661428</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.007161762574189197</v>
+        <v>0.9420969627764545</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.092089079661428</v>
+        <v>1.829868427616959</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9420969627764545</v>
+        <v>29</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.829868427616959</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.234738250301385</v>
       </c>
     </row>
@@ -5282,7 +5084,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.53200103847365</v>
+        <v>1.488383818717391</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.481030236581471</v>
@@ -5371,7 +5173,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.561119738762869</v>
+        <v>1.50950311587833</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.355695866364693</v>
@@ -5460,7 +5262,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.589283989573482</v>
+        <v>1.528510479528996</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.352956079597055</v>
@@ -5549,7 +5351,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.604586404683369</v>
+        <v>1.541906163453003</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.424482893138342</v>
@@ -5638,7 +5440,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.603001321285665</v>
+        <v>1.537971088996278</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.513770601381454</v>
@@ -5727,7 +5529,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.617443509446878</v>
+        <v>1.546749627333687</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.609663995325704</v>
@@ -5816,7 +5618,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.623829819238507</v>
+        <v>1.54995982200511</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.806722083276833</v>
@@ -5905,7 +5707,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.643650063583902</v>
+        <v>1.562698879687554</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.919966457663765</v>
@@ -5994,7 +5796,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.650321574710408</v>
+        <v>1.565226835886587</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.560498704823198</v>
@@ -6083,7 +5885,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.649929326789229</v>
+        <v>1.566427936709826</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.554545079783197</v>
@@ -6172,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.653941857921953</v>
+        <v>1.568191105599437</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.707824378039246</v>
@@ -6261,7 +6063,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.659505361808773</v>
+        <v>1.576909447804673</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.720247203505891</v>
@@ -6350,7 +6152,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.661094605674246</v>
+        <v>1.576347068313691</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.702422143116037</v>
@@ -6439,7 +6241,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.642502958571047</v>
+        <v>1.564148688464218</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.585454163888357</v>
@@ -6528,7 +6330,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.651000493169863</v>
+        <v>1.572974511167466</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.78276982489127</v>
@@ -6617,7 +6419,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.651332043030427</v>
+        <v>1.570329054797632</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.627996607928293</v>
@@ -6706,7 +6508,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.641145820156201</v>
+        <v>1.554997295296677</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.774392297752138</v>
@@ -6795,7 +6597,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.659038969212604</v>
+        <v>1.563264217524954</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.649166217518906</v>
@@ -6884,7 +6686,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.625693174767208</v>
+        <v>1.539320422906101</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.396429265110018</v>
@@ -6973,7 +6775,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.607363247725626</v>
+        <v>1.530144018648714</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.245432215091213</v>
@@ -7062,7 +6864,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.574272978777996</v>
+        <v>1.508301868838869</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.453541299256581</v>
@@ -7151,7 +6953,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.541297527663524</v>
+        <v>1.481323921134825</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.412063756288022</v>
@@ -7240,7 +7042,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.53738536669586</v>
+        <v>1.470743061159117</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.085915277656301</v>
@@ -7329,7 +7131,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.49272949517979</v>
+        <v>1.449555944029332</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.094442749933667</v>
@@ -7418,7 +7220,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.491141607881148</v>
+        <v>1.443845940876443</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.078700284896561</v>
@@ -7507,7 +7309,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.484882290837705</v>
+        <v>1.433995328594065</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.073350460955781</v>
@@ -7596,7 +7398,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.4798616562449</v>
+        <v>1.428524523467944</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.094882065983634</v>
@@ -7685,7 +7487,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.48967506204092</v>
+        <v>1.437888482006977</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.086711783226836</v>
@@ -7774,7 +7576,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.493601307648518</v>
+        <v>1.443506174119314</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.073571215816898</v>
@@ -7863,7 +7665,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.489952154222176</v>
+        <v>1.443132907625079</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.090953287262095</v>
@@ -7952,7 +7754,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.485943652375094</v>
+        <v>1.443403999033845</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.108439617271627</v>
@@ -8041,7 +7843,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.459780364226039</v>
+        <v>1.43138553635501</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.031949526163213</v>
@@ -8130,7 +7932,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.412243720268375</v>
+        <v>1.386362900919264</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.995068036398151</v>
@@ -8219,7 +8021,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.400322466887835</v>
+        <v>1.382666698204589</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.958861688513726</v>
@@ -8308,7 +8110,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.412564741955967</v>
+        <v>1.394878591627001</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.983935121352362</v>
@@ -8397,7 +8199,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.416327234661884</v>
+        <v>1.394639868026222</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.951162097509334</v>
@@ -8486,7 +8288,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.436644178203823</v>
+        <v>1.413240039120711</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.937022486037964</v>
@@ -8575,7 +8377,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.48218601548201</v>
+        <v>1.447410447408236</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.881292184628535</v>
@@ -8664,7 +8466,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.457526312381882</v>
+        <v>1.429312244082567</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.967990226629666</v>
@@ -8753,7 +8555,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.456069061703211</v>
+        <v>1.432545167318132</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.969864592970353</v>
@@ -8842,7 +8644,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.45816266601379</v>
+        <v>1.434965679405741</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.97158091902039</v>
@@ -8931,7 +8733,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.43711741618235</v>
+        <v>1.42125419545764</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.984021024151674</v>
@@ -9020,7 +8822,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.429897124893</v>
+        <v>1.413664305018306</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.992239027212484</v>
@@ -9109,7 +8911,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.426550870122788</v>
+        <v>1.412182743875469</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.017569423907522</v>
@@ -9198,7 +9000,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.411148623950631</v>
+        <v>1.396349315073845</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.014244327023199</v>
@@ -9287,7 +9089,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.410978722178599</v>
+        <v>1.393765910788795</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.93385940321453</v>
@@ -9376,7 +9178,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.429085913953989</v>
+        <v>1.402815148593633</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.96016689342169</v>
@@ -9465,7 +9267,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.472948773521229</v>
+        <v>1.429840051773267</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.13167817204058</v>
@@ -9554,7 +9356,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.456458418789955</v>
+        <v>1.414995706579295</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.152160682881631</v>
@@ -9643,7 +9445,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.427032651079726</v>
+        <v>1.398606094663132</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.144244573446524</v>
@@ -9732,7 +9534,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.428416498915274</v>
+        <v>1.401634756972617</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.216485897780671</v>
@@ -9821,7 +9623,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.416606280088945</v>
+        <v>1.388649681412565</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.243861727569161</v>
@@ -9910,7 +9712,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.424096362588197</v>
+        <v>1.399026335066485</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.031528883261092</v>
@@ -9999,7 +9801,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.442251818522179</v>
+        <v>1.415383119234536</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.204667332538178</v>
@@ -10088,7 +9890,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.441814139060057</v>
+        <v>1.415036837484245</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.191762947433462</v>
@@ -10177,7 +9979,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.448604004311421</v>
+        <v>1.42102195169334</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.206510720451951</v>
@@ -10266,7 +10068,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.462995893650275</v>
+        <v>1.435847385992216</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.228947643947313</v>
@@ -10355,7 +10157,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.467375042034169</v>
+        <v>1.434991774779244</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.170813270750801</v>
@@ -10444,7 +10246,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.477183329114923</v>
+        <v>1.441420444570991</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.158217676633436</v>
@@ -10533,7 +10335,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.478649902261318</v>
+        <v>1.442359378257516</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.194793745327356</v>
@@ -10622,7 +10424,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.490404846695392</v>
+        <v>1.453463583217904</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.162412760257303</v>
@@ -10711,7 +10513,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.489076931608529</v>
+        <v>1.458358201657474</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.139598012064208</v>
@@ -10800,7 +10602,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.507781609427501</v>
+        <v>1.473302746465695</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.11738513478186</v>
@@ -10889,7 +10691,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.541363313602968</v>
+        <v>1.496113720187549</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.341669407474844</v>
@@ -10978,7 +10780,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.576169890009397</v>
+        <v>1.509378029811111</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.507418639041112</v>
@@ -11067,7 +10869,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.601258795807978</v>
+        <v>1.532215260676121</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.248207349510914</v>
@@ -11156,7 +10958,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.62252865330591</v>
+        <v>1.550477456692141</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.494718649717419</v>
@@ -11245,7 +11047,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.589770452584673</v>
+        <v>1.527738243076202</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.508029988815292</v>
@@ -11334,7 +11136,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.591855312516948</v>
+        <v>1.530812745826996</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.449387490533776</v>
@@ -11423,7 +11225,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.588376926551626</v>
+        <v>1.52746571956489</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.512572084125232</v>
@@ -11512,7 +11314,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.570987740142159</v>
+        <v>1.510566672518257</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.404266036690171</v>
@@ -11601,7 +11403,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.491678569872696</v>
+        <v>1.445994066231679</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.167025605322191</v>
@@ -11690,7 +11492,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.466885703750005</v>
+        <v>1.427844898313639</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.2567056706161</v>
@@ -11779,7 +11581,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.467201521892699</v>
+        <v>1.426771215185944</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.239437772235586</v>
@@ -11868,7 +11670,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.404442828864769</v>
+        <v>1.361338649154027</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.754730192198907</v>
@@ -11957,7 +11759,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.371204572544633</v>
+        <v>1.329539702501084</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.756880954195957</v>
@@ -12243,7 +12045,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.666491948700874</v>
+        <v>1.605194252761041</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.96222452592</v>
@@ -12332,7 +12134,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.678852897472292</v>
+        <v>1.608205147578344</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.699606388711605</v>
@@ -12421,7 +12223,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.699129523530392</v>
+        <v>1.615997923766995</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.8233346091096</v>
@@ -12510,7 +12312,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.695137830199859</v>
+        <v>1.610162619536593</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.133812367239952</v>
@@ -12599,7 +12401,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.701193368762757</v>
+        <v>1.617797168886097</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.075702400133979</v>
@@ -12688,7 +12490,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.721934909978078</v>
+        <v>1.61981516949336</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.802440167834244</v>
@@ -12777,7 +12579,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.724780581339866</v>
+        <v>1.619798684073713</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.210285066621141</v>
@@ -12866,7 +12668,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.740392429323951</v>
+        <v>1.628351128545177</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.306859039005996</v>
@@ -12955,7 +12757,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.728214392574913</v>
+        <v>1.619171481372262</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.212841956936357</v>
@@ -13044,7 +12846,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.729955459538876</v>
+        <v>1.622615553977845</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.4033475519405</v>
@@ -13133,7 +12935,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.727575879019882</v>
+        <v>1.616042492614528</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.474976881254309</v>
@@ -13222,7 +13024,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.723068709550534</v>
+        <v>1.61050420894135</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.132034257126494</v>
@@ -13311,7 +13113,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.711799188996979</v>
+        <v>1.596846690143464</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.317317176379078</v>
@@ -13400,7 +13202,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.701206471086123</v>
+        <v>1.586335458878498</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.135117946156844</v>
@@ -13489,7 +13291,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.711969254011762</v>
+        <v>1.591144317912329</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.45204357818522</v>
@@ -13578,7 +13380,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.717096166941128</v>
+        <v>1.600028008548968</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.102575433559325</v>
@@ -13667,7 +13469,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.708722633172668</v>
+        <v>1.59007798750297</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.390981147759123</v>
@@ -13756,7 +13558,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.701967705452613</v>
+        <v>1.57733486637644</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.530137108885906</v>
@@ -13845,7 +13647,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.689070383655103</v>
+        <v>1.565048908226919</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.7732825941069</v>
@@ -13934,7 +13736,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.666811314614589</v>
+        <v>1.55784916279238</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.779859363797457</v>
@@ -14023,7 +13825,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.619557106176922</v>
+        <v>1.53356237107009</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.322962779240945</v>
@@ -14112,7 +13914,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.609968143732667</v>
+        <v>1.533085060063151</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.326516553860697</v>
@@ -14201,7 +14003,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.615026945637286</v>
+        <v>1.541597797220579</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.30581304302749</v>
@@ -14290,7 +14092,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.621708570412391</v>
+        <v>1.549268003167478</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.366504884311804</v>
@@ -14379,7 +14181,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.621587056043638</v>
+        <v>1.541049544145777</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.420550893406061</v>
@@ -14468,7 +14270,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.610627916957902</v>
+        <v>1.527425385598635</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.366036388579012</v>
@@ -14557,7 +14359,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.621866084905113</v>
+        <v>1.541631147057395</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.404928805035862</v>
@@ -14646,7 +14448,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.624370883555896</v>
+        <v>1.536088295178386</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.296376982432872</v>
@@ -14735,7 +14537,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.63355269076072</v>
+        <v>1.545859773425264</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.369638256477296</v>
@@ -14824,7 +14626,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.634258299898258</v>
+        <v>1.550275142400836</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.385969414327999</v>
@@ -14913,7 +14715,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.634285467725276</v>
+        <v>1.543231970256734</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.395152012734378</v>
@@ -15002,7 +14804,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.639362312970178</v>
+        <v>1.555637793658485</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.566301681873273</v>
@@ -15091,7 +14893,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.622807145147221</v>
+        <v>1.551882917404307</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.469022133782457</v>
@@ -15180,7 +14982,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.629539685717423</v>
+        <v>1.570437642978083</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.526471850145297</v>
@@ -15269,7 +15071,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.64919519084568</v>
+        <v>1.577884969961334</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.527154325792913</v>
@@ -15358,7 +15160,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.675569019608318</v>
+        <v>1.590430926811265</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.286729363510431</v>
@@ -15447,7 +15249,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.68649053167278</v>
+        <v>1.595931705277627</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.0827948373703</v>
@@ -15536,7 +15338,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.684843740811454</v>
+        <v>1.586863151450289</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.97866462326782</v>
@@ -15625,7 +15427,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.679696841680222</v>
+        <v>1.588952815038831</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.428072007176076</v>
@@ -15714,7 +15516,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.681533168592775</v>
+        <v>1.594264861838302</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.282069679607706</v>
@@ -15803,7 +15605,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.686808907835577</v>
+        <v>1.60006816755931</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.002153974162371</v>
@@ -15892,7 +15694,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.675827936104821</v>
+        <v>1.596805455293457</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.098204327302974</v>
@@ -15981,7 +15783,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.669735220897963</v>
+        <v>1.600536616081882</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.244709363416484</v>
@@ -16070,7 +15872,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.666795018374291</v>
+        <v>1.602680203973228</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.150047677760387</v>
@@ -16159,7 +15961,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.674014869729201</v>
+        <v>1.608502262802661</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.281473893211636</v>
@@ -16248,7 +16050,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.666306591575883</v>
+        <v>1.602897245954086</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.356448839519824</v>
@@ -16337,7 +16139,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.658928188893197</v>
+        <v>1.588502010743625</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.123942173306603</v>
@@ -16426,7 +16228,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.664851131579598</v>
+        <v>1.580461743366044</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.463163598259219</v>
@@ -16515,7 +16317,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.663605291318286</v>
+        <v>1.581399486036672</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.230943073730633</v>
@@ -16604,7 +16406,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.656244684852008</v>
+        <v>1.578343879086954</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.242269284506759</v>
@@ -16693,7 +16495,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.659134048420441</v>
+        <v>1.578061247156358</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.36255149100986</v>
@@ -16782,7 +16584,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.661492451675948</v>
+        <v>1.582710310800006</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.268519193285482</v>
@@ -16871,7 +16673,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.663344287247668</v>
+        <v>1.591416051715189</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.760768752808434</v>
@@ -16960,7 +16762,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.66513033343564</v>
+        <v>1.590884245685814</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.143206308364394</v>
@@ -17049,7 +16851,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.661514676074906</v>
+        <v>1.589866245178039</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.140718555146802</v>
@@ -17138,7 +16940,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.665678993122511</v>
+        <v>1.592098898835236</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.100470335249934</v>
@@ -17227,7 +17029,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.66337517240417</v>
+        <v>1.586471926042924</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.112808946237858</v>
@@ -17316,7 +17118,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.675697451278475</v>
+        <v>1.595189188259999</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.033622270945693</v>
@@ -17405,7 +17207,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.671611176853856</v>
+        <v>1.585539230455554</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.968291560315381</v>
@@ -17494,7 +17296,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.663590219774774</v>
+        <v>1.580950374358265</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.043171760893325</v>
@@ -17583,7 +17385,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.67074430506346</v>
+        <v>1.593461983925496</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.2390947801951</v>
@@ -17672,7 +17474,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.682581809078133</v>
+        <v>1.613983085329095</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.285119360630795</v>
@@ -17761,7 +17563,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.689404157438585</v>
+        <v>1.620014308477069</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.13161674724754</v>
@@ -17850,7 +17652,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.691851247550425</v>
+        <v>1.606382372709193</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.773730621461098</v>
@@ -17939,7 +17741,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.691592416398444</v>
+        <v>1.590801865466715</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.530560486484729</v>
@@ -18028,7 +17830,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.69582353687832</v>
+        <v>1.608788756451687</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.045412088201889</v>
@@ -18117,7 +17919,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.681751047703645</v>
+        <v>1.592319287540277</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.16571139800261</v>
@@ -18206,7 +18008,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.686127234452051</v>
+        <v>1.597423557367995</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.172894896750249</v>
@@ -18295,7 +18097,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.686780726694041</v>
+        <v>1.596278732867161</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.097362766436279</v>
@@ -18384,7 +18186,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.692502985237312</v>
+        <v>1.598272969289817</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.297270755990178</v>
@@ -18473,7 +18275,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.693922923166458</v>
+        <v>1.60835339871069</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.096723802873257</v>
@@ -18562,7 +18364,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.667966254949004</v>
+        <v>1.591607342298779</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.069857228739588</v>
@@ -18651,7 +18453,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.662005675718629</v>
+        <v>1.588981157366018</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.119106365199855</v>
@@ -18740,7 +18542,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.655330582732727</v>
+        <v>1.589440305518184</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.371158246816997</v>
@@ -18829,7 +18631,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.582834287153903</v>
+        <v>1.515623624760431</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.314594234085225</v>
@@ -18918,7 +18720,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.547610175272848</v>
+        <v>1.492843114441423</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.285424307311188</v>
@@ -19204,7 +19006,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.74533039395645</v>
+        <v>1.631875986125338</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.969614628502992</v>
@@ -19293,7 +19095,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.741464173029941</v>
+        <v>1.62004781356891</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.382090627196093</v>
@@ -19382,7 +19184,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.740773402398838</v>
+        <v>1.616865303308439</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.162215134744912</v>
@@ -19471,7 +19273,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.740617840357823</v>
+        <v>1.613631784512517</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.583882105383887</v>
@@ -19560,7 +19362,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.740143676633224</v>
+        <v>1.61617376613772</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.326005588104243</v>
@@ -19649,7 +19451,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.743998493577334</v>
+        <v>1.617826420374365</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.553745690156619</v>
@@ -19738,7 +19540,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.752168502742828</v>
+        <v>1.621956362519994</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.347767888241063</v>
@@ -19827,7 +19629,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.741073180774183</v>
+        <v>1.613909268483824</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.276219324921537</v>
@@ -19916,7 +19718,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.759567500191152</v>
+        <v>1.620545946412482</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.600590476465957</v>
@@ -20005,7 +19807,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.75399823748041</v>
+        <v>1.622776508945868</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.974410485428936</v>
@@ -20094,7 +19896,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.746873895258269</v>
+        <v>1.618055531173399</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.572865208320767</v>
@@ -20183,7 +19985,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.744695158778862</v>
+        <v>1.614292037422792</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.414348509790332</v>
@@ -20272,7 +20074,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.745522872003097</v>
+        <v>1.613494016302324</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.631446807236096</v>
@@ -20361,7 +20163,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.749701556968801</v>
+        <v>1.612522373611287</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.465705789355917</v>
@@ -20450,7 +20252,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.753039751823003</v>
+        <v>1.622610675829788</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.525815613069271</v>
@@ -20539,7 +20341,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.752890171380462</v>
+        <v>1.629041724124857</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.457109255165774</v>
@@ -20628,7 +20430,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.74440561555012</v>
+        <v>1.614984800682242</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.763305215193414</v>
@@ -20717,7 +20519,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.733971733453009</v>
+        <v>1.603447590097921</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.79564708217265</v>
@@ -20806,7 +20608,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.737350285677596</v>
+        <v>1.606093073958699</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.69108838095805</v>
@@ -20895,7 +20697,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.73715349147335</v>
+        <v>1.605256597527718</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.627807340832014</v>
@@ -20984,7 +20786,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.679605341846137</v>
+        <v>1.575101367175938</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.053374330927269</v>
@@ -21073,7 +20875,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.671567661048396</v>
+        <v>1.567915856770055</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.006597053840217</v>
@@ -21162,7 +20964,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.681800474782291</v>
+        <v>1.577556263673972</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.083936746411446</v>
@@ -21251,7 +21053,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.674385234550936</v>
+        <v>1.578183706543017</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.03475537817538</v>
@@ -21340,7 +21142,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.678065896743233</v>
+        <v>1.574600557370908</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.048046060118101</v>
@@ -21429,7 +21231,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.664909749163644</v>
+        <v>1.568977855544899</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.034800319626165</v>
@@ -21518,7 +21320,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.671785775056124</v>
+        <v>1.573152761584481</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.038242417160365</v>
@@ -21607,7 +21409,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.664882064196354</v>
+        <v>1.567574697766999</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.084722352825827</v>
@@ -21696,7 +21498,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.668914318231479</v>
+        <v>1.57103272606409</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.067556482630501</v>
@@ -21785,7 +21587,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.667078815527431</v>
+        <v>1.571125761884556</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.056301291831427</v>
@@ -21874,7 +21676,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.670486921201871</v>
+        <v>1.575444328601123</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.038310131870536</v>
@@ -21963,7 +21765,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.669552548156777</v>
+        <v>1.586104034652809</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.009546369483829</v>
@@ -22052,7 +21854,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.648771455456591</v>
+        <v>1.575911816321281</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.047323168672381</v>
@@ -22141,7 +21943,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.640180726556657</v>
+        <v>1.577499934585968</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.074377982368365</v>
@@ -22230,7 +22032,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.649734340477309</v>
+        <v>1.576159935694841</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.110051651587421</v>
@@ -22319,7 +22121,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.679556818762933</v>
+        <v>1.595120901039431</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.99725608611036</v>
@@ -22408,7 +22210,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.683083192024327</v>
+        <v>1.592468609871514</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.936767986830399</v>
@@ -22497,7 +22299,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.696302697189575</v>
+        <v>1.598246606152299</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.819988552580182</v>
@@ -22586,7 +22388,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.698713444429614</v>
+        <v>1.605214741576975</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.927351074400721</v>
@@ -22675,7 +22477,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.700132046243513</v>
+        <v>1.608475806207492</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.520154438703343</v>
@@ -22764,7 +22566,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.710681841148456</v>
+        <v>1.61307606095861</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.272231154434103</v>
@@ -22853,7 +22655,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.711196001217862</v>
+        <v>1.619551686820472</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.412006535040212</v>
@@ -22942,7 +22744,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.706002833313104</v>
+        <v>1.620699243400297</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.485673544301945</v>
@@ -23031,7 +22833,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.700874723547934</v>
+        <v>1.611000894776377</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.178543769691706</v>
@@ -23120,7 +22922,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.69920497962727</v>
+        <v>1.616365655563044</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.371600626953217</v>
@@ -23209,7 +23011,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.69339175502464</v>
+        <v>1.610049481246559</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.983050283227642</v>
@@ -23298,7 +23100,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.701622931781777</v>
+        <v>1.611690330544044</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.318107020761152</v>
@@ -23387,7 +23189,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.728601782264403</v>
+        <v>1.619506448326641</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.956484885828868</v>
@@ -23476,7 +23278,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.724361760367042</v>
+        <v>1.619136872448055</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.893524012541086</v>
@@ -23565,7 +23367,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.713906234369806</v>
+        <v>1.618100184366211</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.890035883261534</v>
@@ -23654,7 +23456,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.719550872933994</v>
+        <v>1.623591166689459</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.975856250837481</v>
@@ -23743,7 +23545,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.72348319594351</v>
+        <v>1.627893560854641</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.981911363602</v>
@@ -23832,7 +23634,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.711988908612896</v>
+        <v>1.621942935796914</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.949758958985048</v>
@@ -23921,7 +23723,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.712770203255477</v>
+        <v>1.61969527906896</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.034195305153533</v>
@@ -24010,7 +23812,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.715453369344326</v>
+        <v>1.619385600942343</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.92075764236995</v>
@@ -24099,7 +23901,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.72386848302593</v>
+        <v>1.63040413354479</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.070664370551182</v>
@@ -24188,7 +23990,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.724643816348445</v>
+        <v>1.628929133904485</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.008922020290251</v>
@@ -24277,7 +24079,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.728988260064589</v>
+        <v>1.628516360203009</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.976079193513126</v>
@@ -24366,7 +24168,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.725375845178267</v>
+        <v>1.624930570269185</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.867776114492354</v>
@@ -24455,7 +24257,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.727441873204662</v>
+        <v>1.622581291781246</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.832506146116346</v>
@@ -24544,7 +24346,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.729314107144477</v>
+        <v>1.618012307373475</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.85673698444101</v>
@@ -24633,7 +24435,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.716170773529087</v>
+        <v>1.610095943616989</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.064815169556688</v>
@@ -24722,7 +24524,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.723813209618209</v>
+        <v>1.612958929880329</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.900490054775179</v>
@@ -24811,7 +24613,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.739792645054256</v>
+        <v>1.607992886434368</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.226860687721433</v>
@@ -24900,7 +24702,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.734054387337502</v>
+        <v>1.595877194969777</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.898545709782396</v>
@@ -24989,7 +24791,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.738354998322255</v>
+        <v>1.606628478035441</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.532812165347137</v>
@@ -25078,7 +24880,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.739294418096591</v>
+        <v>1.60845716277671</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.385441896121804</v>
@@ -25167,7 +24969,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.748303254693256</v>
+        <v>1.617400356353891</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.939981753811656</v>
@@ -25256,7 +25058,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.743409186713551</v>
+        <v>1.61252073332719</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.943830650714314</v>
@@ -25345,7 +25147,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.739701868247822</v>
+        <v>1.607976242593596</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.881044001895942</v>
@@ -25434,7 +25236,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.733634038430556</v>
+        <v>1.607321191044241</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.669531411732587</v>
@@ -25523,7 +25325,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.707172377555993</v>
+        <v>1.593323416590933</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.576986720658653</v>
@@ -25612,7 +25414,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.713245573260177</v>
+        <v>1.604287744779745</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.509179509483848</v>
@@ -25701,7 +25503,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.715911580493357</v>
+        <v>1.612529107549289</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.206277913510979</v>
@@ -25790,7 +25592,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.702520758931497</v>
+        <v>1.574376794212819</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.441358284160597</v>
@@ -25879,7 +25681,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.664904664798794</v>
+        <v>1.559812489733409</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.421111352493655</v>
@@ -26165,7 +25967,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.676199512333354</v>
+        <v>1.531200663433818</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.555146816797185</v>
@@ -26254,7 +26056,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.677065057935732</v>
+        <v>1.529947026948513</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.252784148764479</v>
@@ -26343,7 +26145,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.679645970534512</v>
+        <v>1.519942535122194</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.582949062629867</v>
@@ -26432,7 +26234,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.681890329239947</v>
+        <v>1.522517191991668</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.585370540000265</v>
@@ -26521,7 +26323,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.692034421638411</v>
+        <v>1.531740797485155</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.530395345938119</v>
@@ -26610,7 +26412,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.696866563424116</v>
+        <v>1.531907471290719</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.203631549178756</v>
@@ -26699,7 +26501,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.692168372596098</v>
+        <v>1.519488300454648</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.638154703941284</v>
@@ -26788,7 +26590,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.694507922969349</v>
+        <v>1.524458212404837</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.366037374210073</v>
@@ -26877,7 +26679,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.680340230298073</v>
+        <v>1.52197589588527</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.443601933246076</v>
@@ -26966,7 +26768,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.685509606896085</v>
+        <v>1.526424325590238</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.47683441611224</v>
@@ -27055,7 +26857,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.689847378895652</v>
+        <v>1.516049843390396</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.396033828729916</v>
@@ -27144,7 +26946,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.695327223681705</v>
+        <v>1.520010580627387</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.619642006871606</v>
@@ -27233,7 +27035,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.691279346576583</v>
+        <v>1.51784802461504</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.529507633627322</v>
@@ -27322,7 +27124,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.683256903860202</v>
+        <v>1.513442954539886</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.340676056980101</v>
@@ -27411,7 +27213,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.679592619810516</v>
+        <v>1.51174311777934</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.584408049910964</v>
@@ -27500,7 +27302,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.674624643287709</v>
+        <v>1.513922657302933</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.428464525604867</v>
@@ -27589,7 +27391,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.670530174187342</v>
+        <v>1.514036055585521</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.566547091905754</v>
@@ -27678,7 +27480,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.658191374095828</v>
+        <v>1.506255738829066</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.693187653271275</v>
@@ -27767,7 +27569,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.653740876675445</v>
+        <v>1.501136936817029</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.078548857056259</v>
@@ -27856,7 +27658,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.633933134190879</v>
+        <v>1.491515583384658</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.512407275411864</v>
@@ -27945,7 +27747,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.566391909421482</v>
+        <v>1.455991048889663</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.242900248104239</v>
@@ -28034,7 +27836,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.571645768365224</v>
+        <v>1.468201508072434</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.241249785101541</v>
@@ -28123,7 +27925,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.56777041218358</v>
+        <v>1.464172069840317</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.20457848563234</v>
@@ -28212,7 +28014,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.563599637883068</v>
+        <v>1.47023741424941</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.177036695841974</v>
@@ -28301,7 +28103,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.564878615732852</v>
+        <v>1.46773582625082</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.182138896812424</v>
@@ -28390,7 +28192,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.554868546946861</v>
+        <v>1.471157725377813</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.236212225773629</v>
@@ -28479,7 +28281,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.557121178424479</v>
+        <v>1.468057753444865</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.177502667293599</v>
@@ -28568,7 +28370,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.553737377245414</v>
+        <v>1.455978579978707</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.238001113767718</v>
@@ -28657,7 +28459,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.54994703619132</v>
+        <v>1.449897047652333</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.231695289348494</v>
@@ -28746,7 +28548,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.552468060270161</v>
+        <v>1.447591868966398</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.200870182615385</v>
@@ -28835,7 +28637,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.550695458301934</v>
+        <v>1.445698870553871</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.21632581179366</v>
@@ -28924,7 +28726,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.544018070548065</v>
+        <v>1.439015937748979</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.223532780237701</v>
@@ -29013,7 +28815,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.53478749356876</v>
+        <v>1.435715941999792</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.207054585052249</v>
@@ -29102,7 +28904,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.533256208376367</v>
+        <v>1.441708073818757</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.189177071876496</v>
@@ -29191,7 +28993,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.549225821281923</v>
+        <v>1.448659960520382</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.081145308700403</v>
@@ -29280,7 +29082,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.608927422930318</v>
+        <v>1.477458923165528</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.994117350703112</v>
@@ -29369,7 +29171,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.608116020498038</v>
+        <v>1.471588918973901</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.030923908054912</v>
@@ -29458,7 +29260,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.625197573601763</v>
+        <v>1.476538631837126</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.733600752585796</v>
@@ -29547,7 +29349,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.6250200228642</v>
+        <v>1.476851609696314</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.965031171044017</v>
@@ -29636,7 +29438,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.625580125787085</v>
+        <v>1.477140931209998</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.346484738750706</v>
@@ -29725,7 +29527,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.62818241164953</v>
+        <v>1.477466019019128</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.987050787702831</v>
@@ -29814,7 +29616,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.624080676429362</v>
+        <v>1.475533784478425</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.328902147855346</v>
@@ -29903,7 +29705,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.626890509052523</v>
+        <v>1.482548299987203</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.247425463934875</v>
@@ -29992,7 +29794,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.635132915055343</v>
+        <v>1.486801185662906</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.067759469333203</v>
@@ -30081,7 +29883,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.634208581645296</v>
+        <v>1.493086176137421</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.272054815755393</v>
@@ -30170,7 +29972,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.628505579257259</v>
+        <v>1.480481150411187</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.331568369469519</v>
@@ -30259,7 +30061,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.642572436976676</v>
+        <v>1.484060087962992</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.331544644749251</v>
@@ -30348,7 +30150,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.667914570176606</v>
+        <v>1.492162068140148</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.780591103903693</v>
@@ -30437,7 +30239,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.654430822455814</v>
+        <v>1.48177241040732</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.486074549663482</v>
@@ -30526,7 +30328,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.639171423869776</v>
+        <v>1.47963483378863</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.597741850159244</v>
@@ -30615,7 +30417,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.640229699572214</v>
+        <v>1.481925272192617</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.546016385528554</v>
@@ -30704,7 +30506,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.636288088744466</v>
+        <v>1.47351362933377</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.730964452040331</v>
@@ -30793,7 +30595,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.632446818677864</v>
+        <v>1.470463307117164</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.508110380305274</v>
@@ -30882,7 +30684,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.633197356928937</v>
+        <v>1.470910529108066</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.477788082580348</v>
@@ -30971,7 +30773,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.633638033858081</v>
+        <v>1.468991268066837</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.590686748420076</v>
@@ -31060,7 +30862,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.63339844167359</v>
+        <v>1.469672736420271</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.493518206836109</v>
@@ -31149,7 +30951,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.638351097265582</v>
+        <v>1.474841729312938</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.535001398076926</v>
@@ -31238,7 +31040,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.641845063013797</v>
+        <v>1.474695507610785</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.714520887201293</v>
@@ -31327,7 +31129,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.642806294472877</v>
+        <v>1.481343450369073</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.476042403795176</v>
@@ -31416,7 +31218,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.650263907504467</v>
+        <v>1.491420009484735</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.47102513573858</v>
@@ -31505,7 +31307,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.657809303510557</v>
+        <v>1.500286889361573</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.593775728407266</v>
@@ -31594,7 +31396,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.658762732934359</v>
+        <v>1.507806065441879</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.584579034206578</v>
@@ -31683,7 +31485,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.654691012971489</v>
+        <v>1.501653946849701</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.589457054296961</v>
@@ -31772,7 +31574,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.67591713777884</v>
+        <v>1.509722897882266</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.758831224649844</v>
@@ -31861,7 +31663,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.681969587897251</v>
+        <v>1.500016442926883</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.533764935252456</v>
@@ -31950,7 +31752,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.684311025735889</v>
+        <v>1.504153365516826</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.100716368994286</v>
@@ -32039,7 +31841,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.687974303163404</v>
+        <v>1.511133860924638</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.218048745109418</v>
@@ -32128,7 +31930,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.694354323744298</v>
+        <v>1.520992637597139</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.178862449707563</v>
@@ -32217,7 +32019,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.694577569384124</v>
+        <v>1.516326989916563</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.589449216838037</v>
@@ -32306,7 +32108,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.703127545779828</v>
+        <v>1.521743445494142</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.32824110029757</v>
@@ -32395,7 +32197,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.699439313409392</v>
+        <v>1.529472875875994</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.62564337349834</v>
@@ -32484,7 +32286,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.675448579985369</v>
+        <v>1.519743081201516</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.272320001425081</v>
@@ -32573,7 +32375,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.67564176809472</v>
+        <v>1.518810087379793</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.108845585689717</v>
@@ -32662,7 +32464,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.675664374729343</v>
+        <v>1.523160378453478</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.878384216484531</v>
@@ -32751,7 +32553,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.655823416279443</v>
+        <v>1.488662662507751</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.592877941214126</v>
@@ -32840,7 +32642,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.636498732875488</v>
+        <v>1.488516505988485</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.58160763854644</v>
@@ -33126,7 +32928,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.586136434917151</v>
+        <v>1.518817588540716</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.056513388391913</v>
@@ -33215,7 +33017,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.589682966603793</v>
+        <v>1.520043842726974</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.581379772648648</v>
@@ -33304,7 +33106,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.600990239920633</v>
+        <v>1.52794051982616</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.80395412489572</v>
@@ -33393,7 +33195,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.615307763634154</v>
+        <v>1.541618171906516</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.881214933214038</v>
@@ -33482,7 +33284,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.61361267975885</v>
+        <v>1.537115889058446</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.998127939395696</v>
@@ -33571,7 +33373,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.621328893694468</v>
+        <v>1.53749774559171</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.619850613625285</v>
@@ -33660,7 +33462,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.607863999295369</v>
+        <v>1.52273105036612</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.563034256245086</v>
@@ -33749,7 +33551,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.613033505654082</v>
+        <v>1.523993061869935</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.773953515089691</v>
@@ -33838,7 +33640,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.615180595286649</v>
+        <v>1.528341227255688</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.736508884713267</v>
@@ -33927,7 +33729,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.607338792692506</v>
+        <v>1.524961570879459</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.717464910433117</v>
@@ -34016,7 +33818,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.609365815446453</v>
+        <v>1.522372334877532</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.774536850534156</v>
@@ -34105,7 +33907,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.610801415833214</v>
+        <v>1.527055939785696</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.649108063985855</v>
@@ -34194,7 +33996,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.614355995807268</v>
+        <v>1.526147079041705</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.706292781106467</v>
@@ -34283,7 +34085,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.607682278133556</v>
+        <v>1.517276300111685</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.797748684894172</v>
@@ -34372,7 +34174,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.616015135038257</v>
+        <v>1.523073273559221</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.790063533443152</v>
@@ -34461,7 +34263,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.608174821219913</v>
+        <v>1.517465835708826</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.708004019935195</v>
@@ -34550,7 +34352,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.606554198844711</v>
+        <v>1.508768491704886</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.689381312347849</v>
@@ -34639,7 +34441,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.606617826447171</v>
+        <v>1.506454225590884</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.760943768802028</v>
@@ -34728,7 +34530,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.60300796887176</v>
+        <v>1.502936085449458</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.686817412276737</v>
@@ -34817,7 +34619,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.577556781025314</v>
+        <v>1.488009056520973</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.771233859705506</v>
@@ -34906,7 +34708,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.523363842188102</v>
+        <v>1.458011243365335</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.289043396930762</v>
@@ -34995,7 +34797,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.535070475470552</v>
+        <v>1.468377755540271</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.266714214795774</v>
@@ -35084,7 +34886,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.533830685991359</v>
+        <v>1.462984109920378</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.337968433652221</v>
@@ -35173,7 +34975,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.514574367985974</v>
+        <v>1.454220961560104</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.146240166197252</v>
@@ -35262,7 +35064,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.522503690931505</v>
+        <v>1.456889139028892</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.23394881695524</v>
@@ -35351,7 +35153,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.496067406538865</v>
+        <v>1.439202161393518</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.24650110549609</v>
@@ -35440,7 +35242,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.501246416454035</v>
+        <v>1.440380351319058</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.250432735030767</v>
@@ -35529,7 +35331,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.50284592775602</v>
+        <v>1.441066518525084</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.289473631393226</v>
@@ -35618,7 +35420,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.502844490739842</v>
+        <v>1.445574423230905</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.353547542651303</v>
@@ -35707,7 +35509,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.504601422548343</v>
+        <v>1.446239500393337</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.286430053783471</v>
@@ -35796,7 +35598,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.507553216541243</v>
+        <v>1.45027300384808</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.219281001422688</v>
@@ -35885,7 +35687,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.505150849341473</v>
+        <v>1.450905862264723</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.259164711212061</v>
@@ -35974,7 +35776,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.481904719159852</v>
+        <v>1.434819040492283</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.283700273010613</v>
@@ -36063,7 +35865,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.459206215777612</v>
+        <v>1.422000208869755</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.265384975235413</v>
@@ -36152,7 +35954,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.478456429525321</v>
+        <v>1.442507568252879</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.185773409246556</v>
@@ -36241,7 +36043,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.52398357410883</v>
+        <v>1.464057615776599</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.416219454002785</v>
@@ -36330,7 +36132,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.52484574536867</v>
+        <v>1.459572422249609</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.482400658101992</v>
@@ -36419,7 +36221,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.541381497977005</v>
+        <v>1.469832143314381</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.288210501643745</v>
@@ -36508,7 +36310,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.547420502231444</v>
+        <v>1.476650365745506</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.441633784717209</v>
@@ -36597,7 +36399,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.534292930668027</v>
+        <v>1.469457732963782</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.480874757665355</v>
@@ -36686,7 +36488,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.567890068709166</v>
+        <v>1.499454424131701</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.530718992121391</v>
@@ -36775,7 +36577,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.558588638685249</v>
+        <v>1.493035833384324</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.473033712495341</v>
@@ -36864,7 +36666,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.54612382324031</v>
+        <v>1.47914414986641</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.347368288957673</v>
@@ -36953,7 +36755,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.545339141624926</v>
+        <v>1.481528649645129</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.440530038106338</v>
@@ -37042,7 +36844,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.542591773784759</v>
+        <v>1.482603925818917</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.450067873852087</v>
@@ -37131,7 +36933,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.541760538289747</v>
+        <v>1.479259172304828</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.35968307022871</v>
@@ -37220,7 +37022,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.548897257347636</v>
+        <v>1.481045201384182</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.389381481888188</v>
@@ -37309,7 +37111,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.562733365766583</v>
+        <v>1.487050284311978</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.265515381204337</v>
@@ -37398,7 +37200,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.587528225274888</v>
+        <v>1.499148833548443</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.84595359413679</v>
@@ -37487,7 +37289,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.578693239754726</v>
+        <v>1.487625342877979</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.941755189694906</v>
@@ -37576,7 +37378,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.578599166329806</v>
+        <v>1.493937290601959</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.021337274844161</v>
@@ -37665,7 +37467,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.588301873626221</v>
+        <v>1.49981632762358</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.776644859102078</v>
@@ -37754,7 +37556,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.589193879756433</v>
+        <v>1.504904012982094</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.825688849664694</v>
@@ -37843,7 +37645,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.588897401714885</v>
+        <v>1.499671295665489</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.129772143017081</v>
@@ -37932,7 +37734,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.592349935140766</v>
+        <v>1.498654258636415</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.314251554114786</v>
@@ -38021,7 +37823,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.592373728391728</v>
+        <v>1.495279580255075</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.186176324258282</v>
@@ -38110,7 +37912,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.590207407245621</v>
+        <v>1.49773102094511</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.220531298522322</v>
@@ -38199,7 +38001,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.615890361492591</v>
+        <v>1.524930722535809</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.968034587115396</v>
@@ -38288,7 +38090,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.593698571883781</v>
+        <v>1.500808490911034</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.963706628080844</v>
@@ -38377,7 +38179,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.598248565432167</v>
+        <v>1.497628377566395</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.767042022012461</v>
@@ -38466,7 +38268,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.593368350001164</v>
+        <v>1.486389204024918</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.418658472245652</v>
@@ -38555,7 +38357,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.56401257472949</v>
+        <v>1.484446784405335</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.38295233422284</v>
@@ -38644,7 +38446,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.582817467646255</v>
+        <v>1.499602949495831</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.366584912148041</v>
@@ -38733,7 +38535,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.593577496167049</v>
+        <v>1.505511316186445</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.53218899032422</v>
@@ -38822,7 +38624,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.591777484094239</v>
+        <v>1.496202541263827</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.321942062899759</v>
@@ -38911,7 +38713,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.589306657900699</v>
+        <v>1.49835588559969</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.431232937749551</v>
@@ -39000,7 +38802,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.567516317864543</v>
+        <v>1.490581044876802</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.398453050583569</v>
@@ -39089,7 +38891,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.569758221361834</v>
+        <v>1.494042044939126</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.468665576156764</v>
@@ -39178,7 +38980,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.577254595689999</v>
+        <v>1.503683297993808</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.532888044913933</v>
@@ -39267,7 +39069,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.580190078974569</v>
+        <v>1.502567929089686</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.388286294215513</v>
@@ -39356,7 +39158,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.56965167758448</v>
+        <v>1.496413368736532</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.534766080686547</v>
@@ -39445,7 +39247,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.55531763498219</v>
+        <v>1.480691248939885</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.495295650117634</v>
@@ -39534,7 +39336,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.55321997638673</v>
+        <v>1.480362364495947</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.394267161676035</v>
@@ -39623,7 +39425,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.568949074958719</v>
+        <v>1.4954429096197</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.355573978555734</v>
@@ -39712,7 +39514,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.555841363994536</v>
+        <v>1.400662222600207</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.765070938641204</v>
@@ -39801,7 +39603,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.504268708926169</v>
+        <v>1.37812053809216</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.781747069835271</v>
@@ -40087,7 +39889,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.537113739214045</v>
+        <v>1.475357793647473</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.250296637652178</v>
@@ -40176,7 +39978,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.565166249970725</v>
+        <v>1.497451657673252</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.969454435243619</v>
@@ -40265,7 +40067,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.576333561940273</v>
+        <v>1.502806290400087</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.926124372450844</v>
@@ -40354,7 +40156,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.573405076197199</v>
+        <v>1.499859324202884</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.879780557417543</v>
@@ -40443,7 +40245,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.581584339928648</v>
+        <v>1.510345098986956</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.81680862782863</v>
@@ -40532,7 +40334,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.574541139199287</v>
+        <v>1.497113483237621</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.519378663419809</v>
@@ -40621,7 +40423,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.575032167387238</v>
+        <v>1.496383859143409</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.589871497968744</v>
@@ -40710,7 +40512,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.581446840096803</v>
+        <v>1.499904946884058</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.714444566540998</v>
@@ -40799,7 +40601,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.578148916993628</v>
+        <v>1.504043775876284</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.758220289098836</v>
@@ -40888,7 +40690,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.576508843210533</v>
+        <v>1.499892592296856</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.672114119679897</v>
@@ -40977,7 +40779,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.580032563917935</v>
+        <v>1.498251247354367</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.722227205009954</v>
@@ -41066,7 +40868,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.589968877123584</v>
+        <v>1.503000717552447</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.773307380173363</v>
@@ -41155,7 +40957,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.591492246019347</v>
+        <v>1.499705628693946</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.460753926220757</v>
@@ -41244,7 +41046,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.560164666310652</v>
+        <v>1.47548380350774</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.47617625468911</v>
@@ -41333,7 +41135,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.554765653990151</v>
+        <v>1.472780729525025</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.318268085046947</v>
@@ -41422,7 +41224,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.553829561773286</v>
+        <v>1.471023515905936</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.397077380463388</v>
@@ -41511,7 +41313,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.55900725870132</v>
+        <v>1.474487042202624</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.422459937248831</v>
@@ -41600,7 +41402,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.575854354497074</v>
+        <v>1.489093121274161</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.363942749340041</v>
@@ -41689,7 +41491,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.572154269222337</v>
+        <v>1.491452105254739</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.4809011670171</v>
@@ -41778,7 +41580,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.559185475630074</v>
+        <v>1.48400397668183</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.313510867694839</v>
@@ -41867,7 +41669,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.540190867107132</v>
+        <v>1.471643431495189</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.350584541409645</v>
@@ -41956,7 +41758,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.530396270842859</v>
+        <v>1.466625064737812</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.422881513646986</v>
@@ -42045,7 +41847,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.531183405967603</v>
+        <v>1.469844198001197</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.547541962963285</v>
@@ -42134,7 +41936,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.526991325286516</v>
+        <v>1.46791132443966</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.504210343833388</v>
@@ -42223,7 +42025,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.535144388218552</v>
+        <v>1.478677793014759</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.419774526742407</v>
@@ -42312,7 +42114,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.52609510606622</v>
+        <v>1.471949039219163</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.364076528754749</v>
@@ -42401,7 +42203,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.528608843924439</v>
+        <v>1.475684326876029</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.553634974035351</v>
@@ -42490,7 +42292,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.538603933285969</v>
+        <v>1.480490401407142</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.469528871623121</v>
@@ -42579,7 +42381,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.543938172457403</v>
+        <v>1.485543805235626</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.568036128638314</v>
@@ -42668,7 +42470,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.55489274001487</v>
+        <v>1.486923199205126</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.600220612827103</v>
@@ -42757,7 +42559,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.553018208177749</v>
+        <v>1.486240563510059</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.612356475466488</v>
@@ -42846,7 +42648,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.550934125649627</v>
+        <v>1.477774483525591</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.591466839892099</v>
@@ -42935,7 +42737,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.547529400444291</v>
+        <v>1.47274951765103</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.577476176353534</v>
@@ -43024,7 +42826,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.551843458412596</v>
+        <v>1.470906400260608</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.471492625848835</v>
@@ -43113,7 +42915,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.569636066549419</v>
+        <v>1.478495440705848</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.380902940215017</v>
@@ -43202,7 +43004,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.623488028855887</v>
+        <v>1.518392449526614</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.873805074095959</v>
@@ -43291,7 +43093,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.65064996156916</v>
+        <v>1.530675524402796</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.361225261129098</v>
@@ -43380,7 +43182,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.647429801055512</v>
+        <v>1.518393427191872</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.698456947681446</v>
@@ -43469,7 +43271,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.620239686995767</v>
+        <v>1.49879142254947</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.744870761205057</v>
@@ -43558,7 +43360,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.607996343674706</v>
+        <v>1.48638725517349</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.688789775316763</v>
@@ -43647,7 +43449,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.610975237108143</v>
+        <v>1.497269818493973</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.876849811362073</v>
@@ -43736,7 +43538,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.586157631372441</v>
+        <v>1.479779588929836</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.702006145693792</v>
@@ -43825,7 +43627,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.501396520263357</v>
+        <v>1.42079399010811</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.93394325153291</v>
@@ -43914,7 +43716,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.496241193859014</v>
+        <v>1.419492801296259</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.909699279218209</v>
@@ -44003,7 +43805,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.497135734332399</v>
+        <v>1.42759204332787</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.910498309631378</v>
@@ -44092,7 +43894,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.500376737800982</v>
+        <v>1.429580951041835</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.922193073395622</v>
@@ -44181,7 +43983,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.500290427593112</v>
+        <v>1.42583493581257</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.914999170003315</v>
@@ -44270,7 +44072,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.474212623618163</v>
+        <v>1.404151713272088</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.938047441517808</v>
@@ -44359,7 +44161,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.445569362892676</v>
+        <v>1.389827466692688</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.958772522898891</v>
@@ -44448,7 +44250,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.406811938222599</v>
+        <v>1.369339880867958</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.000671566404596</v>
@@ -44537,7 +44339,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.389916803336158</v>
+        <v>1.353600176178567</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.986800980122514</v>
@@ -44626,7 +44428,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.385076325200982</v>
+        <v>1.34882621322421</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.941694556343399</v>
@@ -44715,7 +44517,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.385494215745492</v>
+        <v>1.354472205404075</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.870928030229578</v>
@@ -44804,7 +44606,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.388775606893986</v>
+        <v>1.358912381074824</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.990416749756131</v>
@@ -44893,7 +44695,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.392082007476561</v>
+        <v>1.361104842456006</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.964261909796051</v>
@@ -44982,7 +44784,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.393752802106215</v>
+        <v>1.35815783212565</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.983201969622619</v>
@@ -45071,7 +44873,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.407913810445228</v>
+        <v>1.370776808638239</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.976861253329988</v>
@@ -45160,7 +44962,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.465908074876854</v>
+        <v>1.414976857542632</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.903553838969225</v>
@@ -45249,7 +45051,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.471729923207273</v>
+        <v>1.415888184874177</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.000828789836978</v>
@@ -45338,7 +45140,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.461300819654216</v>
+        <v>1.406016750660914</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.01520232555555</v>
@@ -45427,7 +45229,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.459774695339387</v>
+        <v>1.405193475500176</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.012328554641721</v>
@@ -45516,7 +45318,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.461274533054393</v>
+        <v>1.413867053236263</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.987773977268936</v>
@@ -45605,7 +45407,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.496728499252852</v>
+        <v>1.437521474592313</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.934833138887323</v>
@@ -45694,7 +45496,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.547374529630622</v>
+        <v>1.46170903707625</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.057446972421041</v>
@@ -45783,7 +45585,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.585375845770763</v>
+        <v>1.472817135211632</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.900050405615117</v>
@@ -45872,7 +45674,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.613392523329421</v>
+        <v>1.50411886902817</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.892861644668008</v>
@@ -45961,7 +45763,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.618948920786595</v>
+        <v>1.510345125617701</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.586897281728222</v>
@@ -46050,7 +45852,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.602812051234117</v>
+        <v>1.498732025386413</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.711584156766919</v>
@@ -46139,7 +45941,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.599086435893479</v>
+        <v>1.499430583391557</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.578158475530924</v>
@@ -46228,7 +46030,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.601151337123752</v>
+        <v>1.500759306260983</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.71141446978712</v>
@@ -46317,7 +46119,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.574393790958148</v>
+        <v>1.487661293412501</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.658984984435788</v>
@@ -46406,7 +46208,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.569664269201164</v>
+        <v>1.481949360800107</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.482880231896116</v>
@@ -46495,7 +46297,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.570309065369877</v>
+        <v>1.485743284540497</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.53945345835501</v>
@@ -46584,7 +46386,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.571728401428845</v>
+        <v>1.485987034912226</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.542294797034693</v>
@@ -46673,7 +46475,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.553001767204442</v>
+        <v>1.454350221522787</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.097431298083327</v>
@@ -46762,7 +46564,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.41897420776923</v>
+        <v>1.341563814540259</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.880658290091247</v>
